--- a/estandares.xlsx
+++ b/estandares.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1515" yWindow="1515" windowWidth="15300" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -453,15 +453,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="12.28515625" customWidth="1" min="1" max="2"/>
+    <col width="12.28515625" customWidth="1" min="1" max="1"/>
+    <col width="13.42578125" customWidth="1" min="2" max="2"/>
     <col width="19.85546875" customWidth="1" min="3" max="4"/>
     <col width="21.5703125" customWidth="1" min="5" max="5"/>
     <col width="26.7109375" customWidth="1" min="6" max="6"/>
@@ -472,7 +473,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID Producto</t>
+          <t>Estandar</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -507,14 +508,27 @@
           <t>ACIDO</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>1001</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-28 17:18:23</t>
+          <t>2025-02-14 09:20:18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>n salinas</t>
+          <t>A.VAZQUEZ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:25:59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A.VAZQUEZ</t>
         </is>
       </c>
     </row>
@@ -524,41 +538,57 @@
           <t>ALCOHOL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-02-14 06:50:41</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1002</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>n.salinas</t>
+          <t>2025-02-14 09:25:38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-02-14 06:52:14</t>
+          <t>N.SALINAS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>n.salinas</t>
+          <t>2025-02-14 09:30:21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A.VAZQUEZ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>METANOL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-02-14 06:52:36</t>
-        </is>
+          <t>ACIDO</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1009</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>n.salinas</t>
+          <t>2025-02-14 09:26:28</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N.SALINAS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:30:40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A.VAZQUEZ</t>
         </is>
       </c>
     </row>
@@ -568,14 +598,97 @@
           <t>ACIDO</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-02-14 06:52:57</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1009</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>n.salinas</t>
+          <t>2025-02-14 09:30:54</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A.VAZQUEZ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:45:19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A.VAZQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ALCOHOL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:31:35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N.SALINAS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:46:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N.SALINAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>METANOL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:45:44</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A.VAZQUEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ACETONITRILO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-02-14 09:46:16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A.VAZQUEZ</t>
         </is>
       </c>
     </row>
@@ -596,7 +709,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col width="18.42578125" customWidth="1" min="1" max="1"/>
     <col width="24.5703125" customWidth="1" min="2" max="2"/>
